--- a/前野七楓/3Dチーム制作/仕様書_チームB.xlsx
+++ b/前野七楓/3Dチーム制作/仕様書_チームB.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="90">
   <si>
     <t>今日</t>
     <rPh sb="0" eb="2">
@@ -335,19 +335,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ゲーム画面仕様書</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プレスエンター</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -583,16 +570,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ゲーム内情報</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>片野</t>
     <rPh sb="0" eb="2">
       <t>カタノ</t>
@@ -664,22 +641,138 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>4,　使えるアイテムの表示(回復アイテム、)</t>
-    <rPh sb="3" eb="4">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <t>4,　コマンドを表示</t>
+    <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>5,　コマンドを表示</t>
+    <t>２種類</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム画面情報</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップ情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木の形は２種類、普通に立っている木と図のような倒れている木。　　　　既存のものがあるのならそれを使っても構いません。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岩は大きいものを３つくらいですべて形と大きさが違うもの</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バランスを見ながら図のような小石を置く</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コイシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>基本的に障害物は多め</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム内仕様書</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -691,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +953,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -931,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1455,6 +1556,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,7 +1610,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1722,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,6 +1890,12 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,6 +1905,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,19 +1986,37 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="38" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1738,12 +2046,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,6 +2064,18 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,22 +2091,13 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="38" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1804,60 +2109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1867,118 +2118,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2073,15 +2222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>343199</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>18705</xdr:rowOff>
+      <xdr:rowOff>130764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657412</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>192425</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2092,8 +2241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358140" y="2062250"/>
-          <a:ext cx="1650769" cy="400781"/>
+          <a:off x="343199" y="2319646"/>
+          <a:ext cx="1658919" cy="474354"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2133,15 +2282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>346595</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22475</xdr:rowOff>
+      <xdr:colOff>331654</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>665711</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>188575</xdr:rowOff>
+      <xdr:colOff>650770</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>225928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2152,8 +2301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="346595" y="2747202"/>
-          <a:ext cx="1658389" cy="393161"/>
+          <a:off x="331654" y="3204945"/>
+          <a:ext cx="1663822" cy="405159"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2193,15 +2342,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>354369</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26248</xdr:rowOff>
+      <xdr:colOff>361840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666789</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1907</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>199968</xdr:rowOff>
+      <xdr:rowOff>50556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2212,8 +2361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="354369" y="3432157"/>
-          <a:ext cx="1651693" cy="400781"/>
+          <a:off x="361840" y="3978189"/>
+          <a:ext cx="1657126" cy="405308"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2321,15 +2470,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>454059</xdr:colOff>
+      <xdr:colOff>440763</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201589</xdr:rowOff>
+      <xdr:rowOff>164238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>628952</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>17966</xdr:rowOff>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2338,11 +2487,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1072778" y="2550235"/>
-          <a:ext cx="275996" cy="174893"/>
+          <a:off x="1042086" y="2902268"/>
+          <a:ext cx="336295" cy="194236"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50002"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
@@ -2391,13 +2543,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>458091</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>198838</xdr:rowOff>
+      <xdr:rowOff>34486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>632984</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17964</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2406,8 +2558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1075435" y="3238288"/>
-          <a:ext cx="278745" cy="174893"/>
+          <a:off x="1069269" y="3718896"/>
+          <a:ext cx="297244" cy="174893"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2587,13 +2739,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>450027</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>203493</xdr:rowOff>
+      <xdr:rowOff>151199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>624920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22619</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>201914</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2602,8 +2754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1070783" y="3900737"/>
-          <a:ext cx="275024" cy="174893"/>
+          <a:off x="1068675" y="4537845"/>
+          <a:ext cx="282303" cy="174893"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5532,8 +5684,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>48935</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>224195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5688,16 +5840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5706,68 +5858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1386840" y="12405360"/>
-          <a:ext cx="1005840" cy="754380"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3154680" y="12588240"/>
-          <a:ext cx="1920240" cy="518160"/>
+          <a:off x="2804160" y="12633960"/>
+          <a:ext cx="2689860" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6075,25 +6167,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="フローチャート: 結合子 29"/>
+        <xdr:cNvPr id="33" name="フローチャート: 結合子 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1264920" y="12214860"/>
+          <a:off x="2628900" y="12428220"/>
           <a:ext cx="464820" cy="472440"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -6128,14 +6220,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>４</a:t>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6144,32 +6236,842 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="フローチャート: 結合子 30"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3093720" y="12298680"/>
-          <a:ext cx="464820" cy="472440"/>
+          <a:off x="1546860" y="14462760"/>
+          <a:ext cx="3939540" cy="2887980"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="22448520"/>
+          <a:ext cx="3939540" cy="2887980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661160" y="26532840"/>
+          <a:ext cx="3939540" cy="2887980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1584960" y="18432780"/>
+          <a:ext cx="3939540" cy="2887980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="852541" cy="381000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1630680" y="14112240"/>
+          <a:ext cx="852541" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ウェーブ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1584960" y="18127980"/>
+          <a:ext cx="952500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ウェーブ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="342900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623060" y="22136100"/>
+          <a:ext cx="889987" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ウェーブ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>３</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2301240" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="26182320"/>
+          <a:ext cx="2301240" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ラストウェーブ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722620" y="14554200"/>
+          <a:ext cx="3190240" cy="1794510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373381</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737861" y="14249400"/>
+          <a:ext cx="2590799" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>これをもう少しボロくするイメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388619</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="15902940"/>
+          <a:ext cx="2971799" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="台形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2529840" y="15057120"/>
+          <a:ext cx="525780" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="台形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="15171420"/>
+          <a:ext cx="556260" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -6197,14 +7099,339 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>５</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>岩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="台形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206240" y="16489680"/>
+          <a:ext cx="556260" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>岩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="台形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2202180" y="16215360"/>
+          <a:ext cx="441960" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>岩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="雲 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069080" y="15293340"/>
+          <a:ext cx="396240" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>木</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="雲 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="14874240"/>
+          <a:ext cx="396240" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>木</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="雲 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="15163800"/>
+          <a:ext cx="396240" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>木</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7198,7 +8425,7 @@
   <dimension ref="B1:W30"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7213,95 +8440,95 @@
     <row r="1" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="90"/>
+      <c r="O2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="79">
         <f ca="1">TODAY()</f>
-        <v>44210</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="F3" s="39">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="F3" s="81">
         <v>44225</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="I3" s="39">
+      <c r="G3" s="82"/>
+      <c r="I3" s="81">
         <v>44246</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="L3" s="39">
+      <c r="J3" s="82"/>
+      <c r="L3" s="81">
         <v>44260</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="O3" s="39">
+      <c r="M3" s="82"/>
+      <c r="O3" s="81">
         <v>44274</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="6" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="115"/>
+      <c r="O7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="54" t="s">
+      <c r="Q7" s="118"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="56"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="110"/>
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="2:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="72"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="117"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -7311,19 +8538,19 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="59"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="113"/>
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="2:23" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
-      <c r="J9" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
+      <c r="J9" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -7340,152 +8567,152 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="J10" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="120">
+      <c r="O10" s="45">
         <v>43887</v>
       </c>
-      <c r="P10" s="128" t="s">
+      <c r="P10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="129">
+      <c r="Q10" s="50">
         <v>0</v>
       </c>
-      <c r="R10" s="128" t="s">
+      <c r="R10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="51" t="s">
+      <c r="I11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="120">
+      <c r="J11" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="45">
         <v>43887</v>
       </c>
-      <c r="P11" s="121" t="s">
+      <c r="P11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="129">
+      <c r="Q11" s="50">
         <v>0</v>
       </c>
-      <c r="R11" s="121" t="s">
+      <c r="R11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
     </row>
     <row r="12" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H12" s="7"/>
-      <c r="I12" s="140" t="s">
+      <c r="I12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="38"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="80"/>
       <c r="M12" s="17"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="120">
+      <c r="O12" s="45">
         <v>43887</v>
       </c>
-      <c r="P12" s="121" t="s">
+      <c r="P12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="122">
+      <c r="Q12" s="47">
         <v>0</v>
       </c>
-      <c r="R12" s="121" t="s">
+      <c r="R12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="38"/>
+      <c r="S12" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H13" s="8"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="145"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="133"/>
     </row>
     <row r="14" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="110" t="s">
+      <c r="J14" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="120">
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="45">
         <v>43887</v>
       </c>
-      <c r="P14" s="115" t="s">
+      <c r="P14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="116">
+      <c r="Q14" s="43">
         <v>0</v>
       </c>
-      <c r="R14" s="115" t="s">
+      <c r="R14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="112"/>
+      <c r="S14" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="102"/>
     </row>
     <row r="15" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="120">
+      <c r="O15" s="45">
         <v>43887</v>
       </c>
       <c r="P15" s="26" t="s">
@@ -7497,25 +8724,25 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
+      <c r="S15" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
     </row>
     <row r="16" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I16" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="I16" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="120">
+      <c r="O16" s="45">
         <v>43887</v>
       </c>
       <c r="P16" s="26" t="s">
@@ -7527,36 +8754,36 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
+      <c r="S16" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="120">
+      <c r="O17" s="45">
         <v>43887</v>
       </c>
-      <c r="P17" s="121" t="s">
+      <c r="P17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="122">
+      <c r="Q17" s="47">
         <v>0</v>
       </c>
-      <c r="R17" s="121" t="s">
+      <c r="R17" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.45">
       <c r="I18" s="8"/>
@@ -7565,148 +8792,148 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
+      <c r="O18" s="51"/>
+      <c r="Q18" s="52"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H19" s="8"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H20" s="8"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H21" s="8"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H22" s="8"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H23" s="8"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H24" s="8"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H25" s="8"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H26" s="8"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
     </row>
     <row r="27" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H27" s="8"/>
@@ -7726,13 +8953,13 @@
       <c r="V27" s="8"/>
     </row>
     <row r="28" spans="3:22" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="99"/>
+      <c r="C28" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -7750,11 +8977,11 @@
       <c r="V28" s="8"/>
     </row>
     <row r="29" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="3:22" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -7769,6 +8996,7 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="S15:V15"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J12:L12"/>
@@ -7782,7 +9010,6 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="J7:L8"/>
-    <mergeCell ref="S15:V15"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
@@ -7805,7 +9032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7817,95 +9046,95 @@
     <row r="1" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="90"/>
+      <c r="O2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="79">
         <f ca="1">TODAY()</f>
-        <v>44210</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="F3" s="39">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="F3" s="81">
         <v>44225</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="I3" s="39">
+      <c r="G3" s="82"/>
+      <c r="I3" s="81">
         <v>44246</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="L3" s="39">
+      <c r="J3" s="82"/>
+      <c r="L3" s="81">
         <v>44260</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="O3" s="39">
+      <c r="M3" s="82"/>
+      <c r="O3" s="81">
         <v>44274</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="6" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="115"/>
+      <c r="O7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="54" t="s">
+      <c r="Q7" s="118"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="56"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="110"/>
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="2:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="76"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="117"/>
       <c r="P8" s="23" t="s">
         <v>22</v>
       </c>
@@ -7915,10 +9144,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="59"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="113"/>
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7942,9 +9171,9 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -7969,9 +9198,9 @@
       <c r="I11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -7995,9 +9224,9 @@
       <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -8021,9 +9250,9 @@
       <c r="I13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -8047,9 +9276,9 @@
       <c r="I14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -8073,9 +9302,9 @@
       <c r="I15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -8099,9 +9328,9 @@
       <c r="I16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -8123,9 +9352,9 @@
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I17" s="13"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
@@ -8286,9 +9515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8299,94 +9526,94 @@
     <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="90"/>
+      <c r="O2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="79">
         <f ca="1">TODAY()</f>
-        <v>44210</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="F3" s="39">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="F3" s="81">
         <v>44225</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="I3" s="39">
+      <c r="G3" s="82"/>
+      <c r="I3" s="81">
         <v>44246</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="L3" s="39">
+      <c r="J3" s="82"/>
+      <c r="L3" s="81">
         <v>44260</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="O3" s="39">
+      <c r="M3" s="82"/>
+      <c r="O3" s="81">
         <v>44274</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="6" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="115"/>
+      <c r="O7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="54" t="s">
+      <c r="Q7" s="118"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="56"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="110"/>
     </row>
     <row r="8" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="72"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="117"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -8396,10 +9623,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="59"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="113"/>
     </row>
     <row r="9" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
@@ -8421,9 +9648,9 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -8438,18 +9665,18 @@
       <c r="R10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -8464,20 +9691,20 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -8492,20 +9719,20 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="51" t="s">
+      <c r="S12" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I13" s="123" t="s">
+      <c r="I13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -8520,20 +9747,20 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="51" t="s">
+      <c r="S13" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I14" s="123" t="s">
+      <c r="I14" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -8548,18 +9775,18 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -8574,18 +9801,18 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="I16" s="109" t="s">
+      <c r="I16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -8600,28 +9827,28 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="51" t="s">
+      <c r="S16" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I17" s="13"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="53"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="97"/>
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I18" s="13"/>
@@ -8634,10 +9861,10 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="97"/>
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I19" s="13"/>
@@ -8650,10 +9877,10 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="53"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="97"/>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I20" s="13"/>
@@ -8666,10 +9893,10 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="53"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="97"/>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I21" s="13"/>
@@ -8795,94 +10022,94 @@
     <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="90"/>
+      <c r="O2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="79">
         <f ca="1">TODAY()</f>
-        <v>44210</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="F3" s="39">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="F3" s="81">
         <v>44225</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="I3" s="39">
+      <c r="G3" s="82"/>
+      <c r="I3" s="81">
         <v>44246</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="L3" s="39">
+      <c r="J3" s="82"/>
+      <c r="L3" s="81">
         <v>44260</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="O3" s="39">
+      <c r="M3" s="82"/>
+      <c r="O3" s="81">
         <v>44274</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="6" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="143"/>
+      <c r="O7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="54" t="s">
+      <c r="Q7" s="145"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="89"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="147"/>
     </row>
     <row r="8" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="77"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="84"/>
+      <c r="O8" s="144"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -8892,10 +10119,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="92"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="150"/>
     </row>
     <row r="9" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
@@ -8917,9 +10144,9 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -8934,18 +10161,18 @@
       <c r="R10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -8960,18 +10187,18 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -8986,18 +10213,18 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -9012,18 +10239,18 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -9038,18 +10265,18 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -9064,18 +10291,18 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
     </row>
     <row r="16" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -9090,18 +10317,18 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
@@ -9121,9 +10348,9 @@
       <c r="I18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -9143,9 +10370,9 @@
       <c r="I19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -9165,9 +10392,9 @@
       <c r="I20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="13"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -9187,9 +10414,9 @@
       <c r="I21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="13"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
@@ -9209,9 +10436,9 @@
       <c r="I22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="13"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
@@ -9231,9 +10458,9 @@
       <c r="I23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="13"/>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
@@ -9253,9 +10480,9 @@
       <c r="I24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="33"/>
       <c r="N24" s="34"/>
       <c r="O24" s="33"/>
@@ -9271,9 +10498,9 @@
       <c r="I25" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="38"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="17"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
@@ -9289,9 +10516,9 @@
       <c r="I26" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="38"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="17"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
@@ -9307,9 +10534,9 @@
       <c r="I27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="38"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="17"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
@@ -9325,9 +10552,9 @@
       <c r="I28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="38"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="17"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
@@ -9395,10 +10622,10 @@
   <sheetPr>
     <tabColor rgb="FFFF7D7D"/>
   </sheetPr>
-  <dimension ref="B1:V52"/>
+  <dimension ref="B1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9410,94 +10637,94 @@
     <row r="1" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="155"/>
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="156"/>
+      <c r="L2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="157"/>
+      <c r="O2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="79">
         <f ca="1">TODAY()</f>
-        <v>44210</v>
-      </c>
-      <c r="D3" s="96"/>
-      <c r="F3" s="39">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="158"/>
+      <c r="F3" s="81">
         <v>44225</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="I3" s="39">
+      <c r="G3" s="159"/>
+      <c r="I3" s="81">
         <v>44246</v>
       </c>
-      <c r="J3" s="97"/>
-      <c r="L3" s="39">
+      <c r="J3" s="159"/>
+      <c r="L3" s="81">
         <v>44260</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="O3" s="39">
+      <c r="M3" s="159"/>
+      <c r="O3" s="81">
         <v>44274</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="6" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="143"/>
+      <c r="O7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="54" t="s">
+      <c r="Q7" s="145"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="89"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="147"/>
     </row>
     <row r="8" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="77"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="84"/>
+      <c r="O8" s="144"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -9507,15 +10734,15 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="92"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="150"/>
     </row>
     <row r="9" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
-      <c r="J9" s="141" t="s">
-        <v>52</v>
+      <c r="J9" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -9528,17 +10755,17 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="148"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I10" s="152" t="s">
+      <c r="I10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -9553,22 +10780,22 @@
       <c r="R10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I11" s="152" t="s">
+      <c r="I11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -9583,20 +10810,20 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I12" s="152" t="s">
+      <c r="I12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -9611,20 +10838,20 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I13" s="152" t="s">
+      <c r="I13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -9639,20 +10866,20 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I14" s="152" t="s">
+      <c r="I14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -9667,20 +10894,20 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I15" s="152" t="s">
+      <c r="I15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -9695,57 +10922,59 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
     </row>
     <row r="16" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I16" s="152" t="s">
+      <c r="I16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="120">
+      <c r="O16" s="45">
         <v>44191</v>
       </c>
       <c r="P16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="122">
+      <c r="Q16" s="47">
         <v>0</v>
       </c>
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I17" s="152" t="s">
+      <c r="I17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="J17" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="119"/>
+      <c r="O17" s="45">
+        <v>44191</v>
+      </c>
       <c r="P17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="119"/>
+      <c r="Q17" s="44"/>
       <c r="R17" s="26" t="s">
         <v>27</v>
       </c>
@@ -9755,19 +10984,19 @@
       <c r="V17" s="12"/>
     </row>
     <row r="18" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I18" s="152" t="s">
+      <c r="I18" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="119"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="119"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="26" t="s">
         <v>27</v>
       </c>
@@ -9777,19 +11006,19 @@
       <c r="V18" s="12"/>
     </row>
     <row r="19" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I19" s="152" t="s">
+      <c r="I19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="119"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="119"/>
+      <c r="Q19" s="44"/>
       <c r="R19" s="26" t="s">
         <v>27</v>
       </c>
@@ -9799,19 +11028,19 @@
       <c r="V19" s="12"/>
     </row>
     <row r="20" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I20" s="152" t="s">
+      <c r="I20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="13"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="119"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="119"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="26" t="s">
         <v>27</v>
       </c>
@@ -9821,56 +11050,56 @@
       <c r="V20" s="12"/>
     </row>
     <row r="21" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I21" s="152" t="s">
+      <c r="I21" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="13"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="119"/>
+      <c r="O21" s="44"/>
       <c r="P21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="119"/>
+      <c r="Q21" s="44"/>
       <c r="R21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="51"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="53"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="97"/>
     </row>
     <row r="22" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I22" s="153" t="s">
+      <c r="I22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="168"/>
       <c r="M22" s="33"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="128" t="s">
+      <c r="O22" s="44"/>
+      <c r="P22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="128" t="s">
+      <c r="Q22" s="44"/>
+      <c r="R22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="38"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="80"/>
     </row>
     <row r="23" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I23" s="147"/>
-      <c r="J23" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -9880,304 +11109,437 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="148"/>
+      <c r="V23" s="60"/>
     </row>
     <row r="24" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I24" s="152" t="s">
+      <c r="I24" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="110" t="s">
+      <c r="J24" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="111"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="136" t="s">
-        <v>77</v>
+      <c r="K24" s="101"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="75"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="105"/>
     </row>
     <row r="25" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I25" s="158" t="s">
+      <c r="I25" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="53"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="97"/>
     </row>
     <row r="26" spans="9:22" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I26" s="156" t="s">
+      <c r="I26" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="113"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="40"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="53"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="97"/>
     </row>
     <row r="27" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I27" s="154" t="s">
+      <c r="I27" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
       <c r="M27" s="28"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="53"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="97"/>
     </row>
     <row r="28" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I28" s="156" t="s">
+      <c r="I28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
       <c r="M28" s="28" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="120">
+      <c r="O28" s="45">
         <v>44191</v>
       </c>
-      <c r="P28" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="150">
+      <c r="P28" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="62">
         <v>0.6</v>
       </c>
-      <c r="R28" s="151"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="38"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="80"/>
     </row>
     <row r="29" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I29" s="156" t="s">
+      <c r="I29" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="113"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="107"/>
+      <c r="O29" s="37"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
-      <c r="S29" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="118"/>
+      <c r="S29" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="T29" s="161"/>
+      <c r="U29" s="161"/>
+      <c r="V29" s="162"/>
     </row>
     <row r="30" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I30" s="156" t="s">
+      <c r="I30" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
+      <c r="J30" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="118"/>
+      <c r="S30" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="T30" s="161"/>
+      <c r="U30" s="161"/>
+      <c r="V30" s="162"/>
     </row>
     <row r="31" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I31" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="108"/>
+      <c r="I31" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="163" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="164"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
-      <c r="S31" s="133" t="s">
-        <v>64</v>
-      </c>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="118"/>
+      <c r="S31" s="160" t="s">
+        <v>63</v>
+      </c>
+      <c r="T31" s="161"/>
+      <c r="U31" s="161"/>
+      <c r="V31" s="162"/>
     </row>
     <row r="36" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="3:20" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99"/>
+      <c r="C37" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
     </row>
     <row r="38" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="130"/>
     </row>
     <row r="39" spans="3:20" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="C40" s="160" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="159"/>
-      <c r="F40" s="161"/>
+      <c r="C40" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="152"/>
+      <c r="F40" s="72"/>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L42" s="162" t="s">
+      <c r="L42" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="L44" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162"/>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="163"/>
-      <c r="R42" s="163"/>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L44" s="164" t="s">
-        <v>81</v>
-      </c>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="164"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="171"/>
+      <c r="P44" s="171"/>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="171"/>
+      <c r="S44" s="171"/>
+      <c r="T44" s="171"/>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L46" s="164" t="s">
+      <c r="L46" s="171" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" s="171"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="171"/>
+      <c r="Q46" s="171"/>
+      <c r="R46" s="171"/>
+      <c r="S46" s="171"/>
+      <c r="T46" s="171"/>
+    </row>
+    <row r="48" spans="3:20" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="L48" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="164"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="164"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="164"/>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L48" s="164" t="s">
-        <v>82</v>
-      </c>
-      <c r="M48" s="165"/>
-      <c r="N48" s="165"/>
-      <c r="O48" s="165"/>
-      <c r="P48" s="165"/>
-      <c r="Q48" s="165"/>
-      <c r="R48" s="165"/>
-      <c r="S48" s="165"/>
-      <c r="T48" s="165"/>
-    </row>
-    <row r="50" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L50" s="157" t="s">
+      <c r="M48" s="172"/>
+      <c r="N48" s="172"/>
+      <c r="O48" s="172"/>
+      <c r="P48" s="172"/>
+      <c r="Q48" s="172"/>
+      <c r="R48" s="172"/>
+      <c r="S48" s="172"/>
+      <c r="T48" s="172"/>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
+      <c r="O52" s="75"/>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="75"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="75"/>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C59" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="157"/>
-      <c r="P50" s="157"/>
-      <c r="Q50" s="157"/>
-      <c r="R50" s="157"/>
-      <c r="S50" s="157"/>
-      <c r="T50" s="157"/>
-    </row>
-    <row r="52" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
-      <c r="O52" s="157"/>
-      <c r="P52" s="157"/>
-      <c r="Q52" s="157"/>
-      <c r="R52" s="157"/>
-      <c r="S52" s="157"/>
-      <c r="T52" s="157"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="72"/>
+    </row>
+    <row r="62" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P62" s="151" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q62" s="151"/>
+      <c r="R62" s="151"/>
+      <c r="S62" s="151"/>
+      <c r="T62" s="151"/>
+      <c r="U62" s="78"/>
+      <c r="V62" s="78"/>
+      <c r="W62" s="78"/>
+    </row>
+    <row r="63" spans="3:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P64" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64" s="153"/>
+      <c r="R64" s="153"/>
+      <c r="S64" s="153"/>
+      <c r="T64" s="153"/>
+      <c r="U64" s="153"/>
+      <c r="V64" s="153"/>
+      <c r="W64" s="153"/>
+    </row>
+    <row r="65" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P65" s="154"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="154"/>
+      <c r="U65" s="154"/>
+      <c r="V65" s="154"/>
+      <c r="W65" s="154"/>
+    </row>
+    <row r="66" spans="2:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="67" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P67" s="151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q67" s="151"/>
+      <c r="R67" s="151"/>
+      <c r="S67" s="151"/>
+      <c r="T67" s="151"/>
+      <c r="U67" s="151"/>
+      <c r="V67" s="151"/>
+    </row>
+    <row r="68" spans="2:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="69" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P69" s="151" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q69" s="151"/>
+      <c r="R69" s="151"/>
+      <c r="S69" s="151"/>
+      <c r="T69" s="151"/>
+      <c r="U69" s="151"/>
+    </row>
+    <row r="70" spans="2:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C77" s="77"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="77"/>
+      <c r="T77" s="77"/>
+      <c r="U77" s="77"/>
+      <c r="V77" s="77"/>
+      <c r="W77" s="77"/>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B78" s="76"/>
+      <c r="D78" s="76"/>
+    </row>
+    <row r="94" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
+      <c r="Q94" s="77"/>
+      <c r="R94" s="77"/>
+      <c r="S94" s="77"/>
+      <c r="T94" s="77"/>
+      <c r="U94" s="77"/>
+      <c r="V94" s="77"/>
+      <c r="W94" s="77"/>
+    </row>
+    <row r="111" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="L52:T52"/>
+  <mergeCells count="65">
+    <mergeCell ref="L48:T48"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="L44:T44"/>
     <mergeCell ref="L46:T46"/>
-    <mergeCell ref="L48:T48"/>
     <mergeCell ref="S24:V24"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="S21:V21"/>
@@ -10187,11 +11549,19 @@
     <mergeCell ref="S26:V26"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="S25:V25"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
     <mergeCell ref="C37:G38"/>
     <mergeCell ref="S31:V31"/>
     <mergeCell ref="S30:V30"/>
     <mergeCell ref="S29:V29"/>
     <mergeCell ref="S28:V28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J28:L28"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="S14:V14"/>
     <mergeCell ref="J20:L20"/>
@@ -10226,14 +11596,11 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="S11:V11"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="P67:V67"/>
+    <mergeCell ref="P69:U69"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P64:W65"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10256,94 +11623,94 @@
     <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="90"/>
+      <c r="O2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="79">
         <f ca="1">TODAY()</f>
-        <v>44210</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="F3" s="39">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="F3" s="81">
         <v>44225</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="I3" s="39">
+      <c r="G3" s="82"/>
+      <c r="I3" s="81">
         <v>44246</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="L3" s="39">
+      <c r="J3" s="82"/>
+      <c r="L3" s="81">
         <v>44260</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="O3" s="39">
+      <c r="M3" s="82"/>
+      <c r="O3" s="81">
         <v>44274</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="7" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="60" t="s">
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="62" t="s">
+      <c r="N8" s="143"/>
+      <c r="O8" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="54" t="s">
+      <c r="Q8" s="145"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="89"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="147"/>
     </row>
     <row r="9" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I9" s="77"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
       <c r="M9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="84"/>
+      <c r="O9" s="144"/>
       <c r="P9" s="23" t="s">
         <v>21</v>
       </c>
@@ -10353,10 +11720,10 @@
       <c r="R9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="90"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="92"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="150"/>
     </row>
     <row r="10" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I10" s="18"/>
@@ -10378,9 +11745,9 @@
       <c r="I11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="20">
@@ -10395,18 +11762,18 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="75"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="105"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -10421,18 +11788,18 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -10447,18 +11814,18 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -10473,18 +11840,18 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -10499,18 +11866,18 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
     </row>
     <row r="16" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -10525,18 +11892,18 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="20">
@@ -10551,18 +11918,18 @@
       <c r="R17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="53"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="97"/>
     </row>
     <row r="18" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -10584,9 +11951,9 @@
       <c r="I19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="28"/>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -10608,9 +11975,9 @@
       <c r="I20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="28"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -10632,9 +11999,9 @@
       <c r="I21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="28"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>

--- a/前野七楓/3Dチーム制作/仕様書_チームB.xlsx
+++ b/前野七楓/3Dチーム制作/仕様書_チームB.xlsx
@@ -20,6 +20,8 @@
     <sheet name="ゲーム" sheetId="4" r:id="rId6"/>
     <sheet name="リザルト" sheetId="5" r:id="rId7"/>
     <sheet name="操作" sheetId="9" r:id="rId8"/>
+    <sheet name="プレイヤーの情報" sheetId="10" r:id="rId9"/>
+    <sheet name="敵の情報" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="98">
   <si>
     <t>今日</t>
     <rPh sb="0" eb="2">
@@ -776,6 +778,95 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>敵のステータスやモーションの種類など</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>３,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>武器情報</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <rPh sb="0" eb="1">
+      <t>カタナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>薙刀</t>
+    <rPh sb="0" eb="2">
+      <t>ナギナタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・刀はプレイヤーの形や大きさに合わせて作る</t>
+    <rPh sb="1" eb="2">
+      <t>カタナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・下図の打刀のように双剣よりは長く、太刀よりは短く</t>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウチガタナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウケン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軌跡</t>
+    <rPh sb="0" eb="2">
+      <t>キセキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -784,7 +875,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,8 +1052,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,8 +1144,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1583,6 +1720,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1610,7 +1778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1824,12 +1992,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1848,67 +2010,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="38" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1986,88 +2142,127 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="38" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2076,59 +2271,125 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4976,6 +5237,113 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647311</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="5006" r="2045"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158240" y="31729680"/>
+          <a:ext cx="3512431" cy="2164079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300055</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4145281" y="30670500"/>
+          <a:ext cx="3005154" cy="2249805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4992,7 +5360,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="フローチャート: 代替処理 12">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -5052,7 +5420,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="フローチャート: 代替処理 13">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -5112,7 +5480,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="フローチャート: 代替処理 14">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -5502,7 +5870,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="フローチャート: 代替処理 20">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -5630,7 +5998,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="フローチャート: 代替処理 22">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -5695,7 +6063,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6852,7 +7220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6957,7 +7325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7433,6 +7801,156 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>木</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>20726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7856219" y="31864706"/>
+          <a:ext cx="3733801" cy="2166214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701541" y="33002221"/>
+          <a:ext cx="2628899" cy="297179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>あくまでもイメージです</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8420,6 +8938,19 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W30"/>
@@ -8440,95 +8971,95 @@
     <row r="1" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="124"/>
+      <c r="I2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="O2" s="91" t="s">
+      <c r="M2" s="128"/>
+      <c r="O2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="131">
         <f ca="1">TODAY()</f>
         <v>44215</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="81">
+      <c r="D3" s="95"/>
+      <c r="F3" s="132">
         <v>44225</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="I3" s="81">
+      <c r="G3" s="133"/>
+      <c r="I3" s="132">
         <v>44246</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="L3" s="81">
+      <c r="J3" s="133"/>
+      <c r="L3" s="132">
         <v>44260</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="O3" s="81">
+      <c r="M3" s="133"/>
+      <c r="O3" s="132">
         <v>44274</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="6" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="114" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="116" t="s">
+      <c r="N7" s="111"/>
+      <c r="O7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="108" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="110"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="2:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="94"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="117"/>
+      <c r="O8" s="113"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -8538,19 +9069,19 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="113"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="2:23" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -8567,11 +9098,11 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="45">
@@ -8586,22 +9117,22 @@
       <c r="R10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="103" t="s">
+      <c r="S10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
     </row>
     <row r="11" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="40"/>
       <c r="N11" s="41"/>
       <c r="O11" s="45">
@@ -8616,21 +9147,21 @@
       <c r="R11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H12" s="7"/>
       <c r="I12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="80"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="17"/>
       <c r="N12" s="16"/>
       <c r="O12" s="45">
@@ -8645,41 +9176,41 @@
       <c r="R12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="98" t="s">
+      <c r="S12" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="80"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="95"/>
     </row>
     <row r="13" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H13" s="8"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="131" t="s">
+      <c r="J13" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="133"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="88"/>
     </row>
     <row r="14" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="102"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="40"/>
       <c r="N14" s="41"/>
       <c r="O14" s="45">
@@ -8694,22 +9225,22 @@
       <c r="R14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="100" t="s">
+      <c r="S14" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="102"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="98"/>
     </row>
     <row r="15" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="95" t="s">
+      <c r="J15" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="45">
@@ -8724,22 +9255,22 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="95" t="s">
+      <c r="S15" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="95" t="s">
+      <c r="J16" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="45">
@@ -8754,18 +9285,18 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
     </row>
     <row r="17" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="54"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="45">
@@ -8780,10 +9311,10 @@
       <c r="R17" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.45">
       <c r="I18" s="8"/>
@@ -8794,10 +9325,10 @@
       <c r="N18" s="8"/>
       <c r="O18" s="51"/>
       <c r="Q18" s="52"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.45">
       <c r="H19" s="8"/>
@@ -8953,13 +9484,13 @@
       <c r="V27" s="8"/>
     </row>
     <row r="28" spans="3:22" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -8977,26 +9508,25 @@
       <c r="V28" s="8"/>
     </row>
     <row r="29" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="130"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
     </row>
     <row r="30" spans="3:22" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="J13:V13"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J12:L12"/>
@@ -9010,16 +9540,17 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="J7:L8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="J13:V13"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="S15:V15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9046,95 +9577,95 @@
     <row r="1" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="124"/>
+      <c r="I2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="O2" s="91" t="s">
+      <c r="M2" s="128"/>
+      <c r="O2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="131">
         <f ca="1">TODAY()</f>
         <v>44215</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="81">
+      <c r="D3" s="95"/>
+      <c r="F3" s="132">
         <v>44225</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="I3" s="81">
+      <c r="G3" s="133"/>
+      <c r="I3" s="132">
         <v>44246</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="L3" s="81">
+      <c r="J3" s="133"/>
+      <c r="L3" s="132">
         <v>44260</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="O3" s="81">
+      <c r="M3" s="133"/>
+      <c r="O3" s="132">
         <v>44274</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="6" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="114" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="116" t="s">
+      <c r="N7" s="111"/>
+      <c r="O7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="108" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="110"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="2:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="136"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="117"/>
+      <c r="O8" s="113"/>
       <c r="P8" s="23" t="s">
         <v>22</v>
       </c>
@@ -9144,10 +9675,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="113"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -9171,9 +9702,9 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -9198,9 +9729,9 @@
       <c r="I11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -9224,9 +9755,9 @@
       <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -9250,9 +9781,9 @@
       <c r="I13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -9276,9 +9807,9 @@
       <c r="I14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -9302,9 +9833,9 @@
       <c r="I15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -9328,9 +9859,9 @@
       <c r="I16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -9352,9 +9883,9 @@
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I17" s="13"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
@@ -9480,11 +10011,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:V8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -9498,12 +10030,11 @@
     <mergeCell ref="J7:L8"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9526,94 +10057,94 @@
     <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="124"/>
+      <c r="I2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="O2" s="91" t="s">
+      <c r="M2" s="128"/>
+      <c r="O2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="131">
         <f ca="1">TODAY()</f>
         <v>44215</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="81">
+      <c r="D3" s="95"/>
+      <c r="F3" s="132">
         <v>44225</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="I3" s="81">
+      <c r="G3" s="133"/>
+      <c r="I3" s="132">
         <v>44246</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="L3" s="81">
+      <c r="J3" s="133"/>
+      <c r="L3" s="132">
         <v>44260</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="O3" s="81">
+      <c r="M3" s="133"/>
+      <c r="O3" s="132">
         <v>44274</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="6" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="114" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="115"/>
-      <c r="O7" s="116" t="s">
+      <c r="N7" s="111"/>
+      <c r="O7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="108" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="110"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106"/>
     </row>
     <row r="8" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="94"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="117"/>
+      <c r="O8" s="113"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -9623,10 +10154,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="113"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
@@ -9648,9 +10179,9 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -9665,18 +10196,18 @@
       <c r="R10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
     </row>
     <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -9691,20 +10222,20 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="95" t="s">
+      <c r="S11" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -9719,20 +10250,20 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="95" t="s">
+      <c r="S12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="97"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="85"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -9747,20 +10278,20 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="95" t="s">
+      <c r="S13" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="97"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="85"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -9775,18 +10306,18 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -9801,18 +10332,18 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="I16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -9827,28 +10358,28 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I17" s="13"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="97"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="85"/>
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I18" s="13"/>
@@ -9861,10 +10392,10 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="97"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="85"/>
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I19" s="13"/>
@@ -9877,10 +10408,10 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="97"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="85"/>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I20" s="13"/>
@@ -9893,10 +10424,10 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="97"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="85"/>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I21" s="13"/>
@@ -9964,25 +10495,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="S10:V10"/>
     <mergeCell ref="S18:V18"/>
     <mergeCell ref="S19:V19"/>
     <mergeCell ref="S20:V20"/>
@@ -9999,6 +10511,25 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:L8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S17:V17"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10022,94 +10553,94 @@
     <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="124"/>
+      <c r="I2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="O2" s="91" t="s">
+      <c r="M2" s="128"/>
+      <c r="O2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="131">
         <f ca="1">TODAY()</f>
         <v>44215</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="81">
+      <c r="D3" s="95"/>
+      <c r="F3" s="132">
         <v>44225</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="I3" s="81">
+      <c r="G3" s="133"/>
+      <c r="I3" s="132">
         <v>44246</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="L3" s="81">
+      <c r="J3" s="133"/>
+      <c r="L3" s="132">
         <v>44260</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="O3" s="81">
+      <c r="M3" s="133"/>
+      <c r="O3" s="132">
         <v>44274</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="6" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="114" t="s">
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="116" t="s">
+      <c r="N7" s="136"/>
+      <c r="O7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="108" t="s">
+      <c r="Q7" s="135"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="147"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="138"/>
     </row>
     <row r="8" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="137"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="144"/>
+      <c r="O8" s="148"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -10119,10 +10650,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="150"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="141"/>
     </row>
     <row r="9" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
@@ -10144,9 +10675,9 @@
       <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -10161,18 +10692,18 @@
       <c r="R10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
     </row>
     <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="20">
@@ -10187,18 +10718,18 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -10213,18 +10744,18 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="97"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="85"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -10239,18 +10770,18 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="97"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="85"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -10265,18 +10796,18 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -10291,18 +10822,18 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -10317,18 +10848,18 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
     </row>
     <row r="17" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
@@ -10348,9 +10879,9 @@
       <c r="I18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -10370,9 +10901,9 @@
       <c r="I19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -10392,9 +10923,9 @@
       <c r="I20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="13"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -10414,9 +10945,9 @@
       <c r="I21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="13"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
@@ -10436,9 +10967,9 @@
       <c r="I22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="13"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
@@ -10458,9 +10989,9 @@
       <c r="I23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="13"/>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
@@ -10480,9 +11011,9 @@
       <c r="I24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="33"/>
       <c r="N24" s="34"/>
       <c r="O24" s="33"/>
@@ -10498,9 +11029,9 @@
       <c r="I25" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="80"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="17"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
@@ -10516,9 +11047,9 @@
       <c r="I26" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="80"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="17"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
@@ -10534,9 +11065,9 @@
       <c r="I27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="80"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="17"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
@@ -10552,9 +11083,9 @@
       <c r="I28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="80"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="17"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
@@ -10568,32 +11099,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:V8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -10610,6 +11115,32 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="S11:V11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10622,10 +11153,10 @@
   <sheetPr>
     <tabColor rgb="FFFF7D7D"/>
   </sheetPr>
-  <dimension ref="B1:W111"/>
+  <dimension ref="B1:W161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10637,94 +11168,94 @@
     <row r="1" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="156"/>
+      <c r="I2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="156"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="157"/>
+      <c r="L2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="157"/>
-      <c r="O2" s="91" t="s">
+      <c r="M2" s="158"/>
+      <c r="O2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="131">
         <f ca="1">TODAY()</f>
         <v>44215</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="F3" s="81">
+      <c r="D3" s="159"/>
+      <c r="F3" s="132">
         <v>44225</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="I3" s="81">
+      <c r="G3" s="160"/>
+      <c r="I3" s="132">
         <v>44246</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="L3" s="81">
+      <c r="J3" s="160"/>
+      <c r="L3" s="132">
         <v>44260</v>
       </c>
-      <c r="M3" s="159"/>
-      <c r="O3" s="81">
+      <c r="M3" s="160"/>
+      <c r="O3" s="132">
         <v>44274</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="6" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="114" t="s">
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="116" t="s">
+      <c r="N7" s="136"/>
+      <c r="O7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="108" t="s">
+      <c r="Q7" s="135"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="147"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="138"/>
     </row>
     <row r="8" spans="2:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="137"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
       <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="144"/>
+      <c r="O8" s="148"/>
       <c r="P8" s="23" t="s">
         <v>21</v>
       </c>
@@ -10734,10 +11265,10 @@
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="150"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="141"/>
     </row>
     <row r="9" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="18"/>
@@ -10761,11 +11292,11 @@
       <c r="I10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="20">
@@ -10780,20 +11311,20 @@
       <c r="R10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
     </row>
     <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="169"/>
       <c r="M11" s="28" t="s">
         <v>65</v>
       </c>
@@ -10810,20 +11341,20 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="95" t="s">
+      <c r="J12" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="169"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -10838,20 +11369,20 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="97"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="85"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="95" t="s">
+      <c r="J13" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="169"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -10866,20 +11397,20 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="97"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="85"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="95" t="s">
+      <c r="J14" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="169"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -10894,20 +11425,20 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="95" t="s">
+      <c r="J15" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="169"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -10922,20 +11453,22 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
+      <c r="S15" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="95" t="s">
+      <c r="J16" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="169"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="45">
@@ -10950,20 +11483,20 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
     </row>
     <row r="17" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="95" t="s">
+      <c r="J17" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="169"/>
       <c r="M17" s="28" t="s">
         <v>76</v>
       </c>
@@ -10978,18 +11511,18 @@
       <c r="R17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="12"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="85"/>
     </row>
     <row r="18" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
       <c r="O18" s="44"/>
@@ -11000,18 +11533,18 @@
       <c r="R18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="12"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="85"/>
     </row>
     <row r="19" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12"/>
       <c r="O19" s="44"/>
@@ -11022,18 +11555,18 @@
       <c r="R19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="12"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="85"/>
     </row>
     <row r="20" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="13"/>
       <c r="N20" s="12"/>
       <c r="O20" s="44"/>
@@ -11044,18 +11577,18 @@
       <c r="R20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="12"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="85"/>
     </row>
     <row r="21" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I21" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="13"/>
       <c r="N21" s="12"/>
       <c r="O21" s="44"/>
@@ -11066,18 +11599,18 @@
       <c r="R21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="95"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="97"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="85"/>
     </row>
     <row r="22" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="166"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="168"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
       <c r="M22" s="33"/>
       <c r="N22" s="34"/>
       <c r="O22" s="44"/>
@@ -11088,18 +11621,18 @@
       <c r="R22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="98"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="80"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="95"/>
     </row>
     <row r="23" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I23" s="59"/>
-      <c r="J23" s="169" t="s">
+      <c r="J23" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -11115,11 +11648,11 @@
       <c r="I24" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="100" t="s">
+      <c r="J24" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="101"/>
-      <c r="L24" s="102"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="166"/>
       <c r="M24" s="55" t="s">
         <v>75</v>
       </c>
@@ -11130,86 +11663,86 @@
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="46"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="105"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="101"/>
     </row>
     <row r="25" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I25" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="95" t="s">
+      <c r="J25" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="169"/>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
       <c r="O25" s="44"/>
       <c r="P25" s="63"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="63"/>
-      <c r="S25" s="95" t="s">
+      <c r="S25" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="97"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="169"/>
     </row>
     <row r="26" spans="9:22" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I26" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="95" t="s">
+      <c r="J26" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="169"/>
       <c r="M26" s="40"/>
       <c r="N26" s="13"/>
       <c r="O26" s="44"/>
       <c r="P26" s="63"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="63"/>
-      <c r="S26" s="95" t="s">
+      <c r="S26" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="97"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="169"/>
     </row>
     <row r="27" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I27" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="95" t="s">
+      <c r="J27" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="169"/>
       <c r="M27" s="28"/>
       <c r="N27" s="7"/>
       <c r="O27" s="44"/>
       <c r="P27" s="63"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="63"/>
-      <c r="S27" s="95" t="s">
+      <c r="S27" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="97"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="169"/>
     </row>
     <row r="28" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="169"/>
       <c r="M28" s="28" t="s">
         <v>43</v>
       </c>
@@ -11224,78 +11757,78 @@
         <v>0.6</v>
       </c>
       <c r="R28" s="63"/>
-      <c r="S28" s="98" t="s">
+      <c r="S28" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="80"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="178"/>
     </row>
     <row r="29" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I29" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="169"/>
       <c r="M29" s="40"/>
       <c r="N29" s="13"/>
       <c r="O29" s="37"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
-      <c r="S29" s="160" t="s">
+      <c r="S29" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="162"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="181"/>
     </row>
     <row r="30" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I30" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="169"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="160" t="s">
+      <c r="S30" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="161"/>
-      <c r="U30" s="161"/>
-      <c r="V30" s="162"/>
+      <c r="T30" s="180"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="181"/>
     </row>
     <row r="31" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I31" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="163" t="s">
+      <c r="J31" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="164"/>
-      <c r="L31" s="165"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="172"/>
       <c r="M31" s="37"/>
       <c r="N31" s="38"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
-      <c r="S31" s="160" t="s">
+      <c r="S31" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="162"/>
+      <c r="T31" s="180"/>
+      <c r="U31" s="180"/>
+      <c r="V31" s="181"/>
     </row>
     <row r="36" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O36" t="s">
@@ -11303,283 +11836,458 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="130"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="3:20" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="C40" s="71" t="s">
+    <row r="40" spans="3:20" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="C40" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="152" t="s">
+      <c r="D40" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="152"/>
-      <c r="F40" s="72"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L42" s="73" t="s">
+      <c r="L42" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L44" s="171" t="s">
+      <c r="L44" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="171"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="171"/>
-      <c r="S44" s="171"/>
-      <c r="T44" s="171"/>
+      <c r="M44" s="149"/>
+      <c r="N44" s="149"/>
+      <c r="O44" s="149"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="149"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="149"/>
+      <c r="T44" s="149"/>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="L46" s="171" t="s">
+      <c r="L46" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="M46" s="171"/>
-      <c r="N46" s="171"/>
-      <c r="O46" s="171"/>
-      <c r="P46" s="171"/>
-      <c r="Q46" s="171"/>
-      <c r="R46" s="171"/>
-      <c r="S46" s="171"/>
-      <c r="T46" s="171"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="149"/>
+      <c r="S46" s="149"/>
+      <c r="T46" s="149"/>
     </row>
     <row r="48" spans="3:20" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="L48" s="171" t="s">
+      <c r="L48" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="M48" s="172"/>
-      <c r="N48" s="172"/>
-      <c r="O48" s="172"/>
-      <c r="P48" s="172"/>
-      <c r="Q48" s="172"/>
-      <c r="R48" s="172"/>
-      <c r="S48" s="172"/>
-      <c r="T48" s="172"/>
+      <c r="M48" s="150"/>
+      <c r="N48" s="150"/>
+      <c r="O48" s="150"/>
+      <c r="P48" s="150"/>
+      <c r="Q48" s="150"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="150"/>
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="75"/>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C59" s="71" t="s">
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+    </row>
+    <row r="59" spans="3:23" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="C59" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="152" t="s">
+      <c r="D59" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="152"/>
-      <c r="F59" s="72"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="194"/>
     </row>
     <row r="62" spans="3:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P62" s="151" t="s">
+      <c r="P62" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="Q62" s="151"/>
-      <c r="R62" s="151"/>
-      <c r="S62" s="151"/>
-      <c r="T62" s="151"/>
-      <c r="U62" s="78"/>
-      <c r="V62" s="78"/>
-      <c r="W62" s="78"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="161"/>
+      <c r="S62" s="161"/>
+      <c r="T62" s="161"/>
+      <c r="U62" s="76"/>
+      <c r="V62" s="76"/>
+      <c r="W62" s="76"/>
     </row>
     <row r="63" spans="3:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P64" s="153" t="s">
+      <c r="P64" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="Q64" s="153"/>
-      <c r="R64" s="153"/>
-      <c r="S64" s="153"/>
-      <c r="T64" s="153"/>
-      <c r="U64" s="153"/>
-      <c r="V64" s="153"/>
-      <c r="W64" s="153"/>
+      <c r="Q64" s="162"/>
+      <c r="R64" s="162"/>
+      <c r="S64" s="162"/>
+      <c r="T64" s="162"/>
+      <c r="U64" s="162"/>
+      <c r="V64" s="162"/>
+      <c r="W64" s="162"/>
     </row>
     <row r="65" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-      <c r="V65" s="154"/>
-      <c r="W65" s="154"/>
+      <c r="P65" s="163"/>
+      <c r="Q65" s="163"/>
+      <c r="R65" s="163"/>
+      <c r="S65" s="163"/>
+      <c r="T65" s="163"/>
+      <c r="U65" s="163"/>
+      <c r="V65" s="163"/>
+      <c r="W65" s="163"/>
     </row>
     <row r="66" spans="2:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P67" s="151" t="s">
+      <c r="P67" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="Q67" s="151"/>
-      <c r="R67" s="151"/>
-      <c r="S67" s="151"/>
-      <c r="T67" s="151"/>
-      <c r="U67" s="151"/>
-      <c r="V67" s="151"/>
+      <c r="Q67" s="161"/>
+      <c r="R67" s="161"/>
+      <c r="S67" s="161"/>
+      <c r="T67" s="161"/>
+      <c r="U67" s="161"/>
+      <c r="V67" s="161"/>
     </row>
     <row r="68" spans="2:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="69" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="P69" s="151" t="s">
+      <c r="P69" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="Q69" s="151"/>
-      <c r="R69" s="151"/>
-      <c r="S69" s="151"/>
-      <c r="T69" s="151"/>
-      <c r="U69" s="151"/>
+      <c r="Q69" s="161"/>
+      <c r="R69" s="161"/>
+      <c r="S69" s="161"/>
+      <c r="T69" s="161"/>
+      <c r="U69" s="161"/>
     </row>
     <row r="70" spans="2:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="77" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C77" s="77"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="75"/>
       <c r="D77" s="69"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="77"/>
-      <c r="R77" s="77"/>
-      <c r="S77" s="77"/>
-      <c r="T77" s="77"/>
-      <c r="U77" s="77"/>
-      <c r="V77" s="77"/>
-      <c r="W77" s="77"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="75"/>
+      <c r="Q77" s="75"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="75"/>
+      <c r="T77" s="75"/>
+      <c r="U77" s="75"/>
+      <c r="V77" s="75"/>
+      <c r="W77" s="75"/>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B78" s="76"/>
-      <c r="D78" s="76"/>
+      <c r="B78" s="8"/>
+      <c r="D78" s="74"/>
     </row>
     <row r="94" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
-      <c r="M94" s="77"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="77"/>
-      <c r="P94" s="77"/>
-      <c r="Q94" s="77"/>
-      <c r="R94" s="77"/>
-      <c r="S94" s="77"/>
-      <c r="T94" s="77"/>
-      <c r="U94" s="77"/>
-      <c r="V94" s="77"/>
-      <c r="W94" s="77"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="75"/>
+      <c r="Q94" s="75"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="75"/>
+      <c r="T94" s="75"/>
+      <c r="U94" s="75"/>
+      <c r="V94" s="75"/>
+      <c r="W94" s="75"/>
     </row>
     <row r="111" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="77"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="77"/>
-      <c r="Q111" s="77"/>
-      <c r="R111" s="77"/>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="77"/>
-      <c r="V111" s="77"/>
-      <c r="W111" s="77"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="75"/>
+      <c r="N111" s="75"/>
+      <c r="O111" s="75"/>
+      <c r="P111" s="75"/>
+      <c r="Q111" s="75"/>
+      <c r="R111" s="75"/>
+      <c r="S111" s="75"/>
+      <c r="T111" s="75"/>
+      <c r="U111" s="75"/>
+      <c r="V111" s="75"/>
+      <c r="W111" s="75"/>
+    </row>
+    <row r="130" spans="3:22" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="C130" s="193" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" s="194"/>
+      <c r="F130" s="194"/>
+    </row>
+    <row r="131" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C131" s="182"/>
+      <c r="D131" s="182"/>
+      <c r="E131" s="182"/>
+      <c r="F131" s="182"/>
+      <c r="G131" s="182"/>
+      <c r="H131" s="182"/>
+      <c r="I131" s="182"/>
+      <c r="J131" s="182"/>
+      <c r="K131" s="182"/>
+      <c r="L131" s="182"/>
+      <c r="M131" s="182"/>
+      <c r="N131" s="182"/>
+      <c r="O131" s="182"/>
+      <c r="P131" s="182"/>
+      <c r="Q131" s="182"/>
+      <c r="R131" s="182"/>
+      <c r="S131" s="182"/>
+      <c r="T131" s="182"/>
+      <c r="U131" s="182"/>
+      <c r="V131" s="182"/>
+    </row>
+    <row r="132" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="C132" s="183" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="184"/>
+      <c r="K132" s="201"/>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="197" t="s">
+        <v>97</v>
+      </c>
+      <c r="S132" s="198"/>
+    </row>
+    <row r="133" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C133" s="185"/>
+      <c r="D133" s="186"/>
+      <c r="K133" s="202"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="199"/>
+      <c r="S133" s="200"/>
+    </row>
+    <row r="134" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K134" s="202"/>
+      <c r="L134" s="195" t="s">
+        <v>95</v>
+      </c>
+      <c r="M134" s="195"/>
+      <c r="N134" s="195"/>
+      <c r="O134" s="195"/>
+      <c r="P134" s="195"/>
+      <c r="Q134" s="196"/>
+    </row>
+    <row r="135" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K135" s="202"/>
+      <c r="Q135" s="7"/>
+    </row>
+    <row r="136" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K136" s="202"/>
+      <c r="L136" s="195" t="s">
+        <v>96</v>
+      </c>
+      <c r="M136" s="195"/>
+      <c r="N136" s="195"/>
+      <c r="O136" s="195"/>
+      <c r="P136" s="195"/>
+      <c r="Q136" s="196"/>
+    </row>
+    <row r="137" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K137" s="202"/>
+      <c r="Q137" s="7"/>
+    </row>
+    <row r="138" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K138" s="202"/>
+      <c r="Q138" s="7"/>
+    </row>
+    <row r="139" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K139" s="202"/>
+      <c r="Q139" s="7"/>
+    </row>
+    <row r="140" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K140" s="202"/>
+      <c r="Q140" s="7"/>
+    </row>
+    <row r="141" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K141" s="202"/>
+      <c r="Q141" s="7"/>
+    </row>
+    <row r="142" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K142" s="202"/>
+      <c r="Q142" s="7"/>
+    </row>
+    <row r="143" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K143" s="202"/>
+      <c r="Q143" s="7"/>
+    </row>
+    <row r="144" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K144" s="202"/>
+      <c r="Q144" s="7"/>
+    </row>
+    <row r="145" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K145" s="202"/>
+      <c r="Q145" s="7"/>
+    </row>
+    <row r="146" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K146" s="202"/>
+      <c r="Q146" s="7"/>
+    </row>
+    <row r="147" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C147" s="182"/>
+      <c r="D147" s="182"/>
+      <c r="E147" s="182"/>
+      <c r="F147" s="182"/>
+      <c r="G147" s="182"/>
+      <c r="H147" s="182"/>
+      <c r="I147" s="182"/>
+      <c r="J147" s="182"/>
+      <c r="K147" s="203"/>
+      <c r="L147" s="182"/>
+      <c r="M147" s="182"/>
+      <c r="N147" s="182"/>
+      <c r="O147" s="182"/>
+      <c r="P147" s="182"/>
+      <c r="Q147" s="38"/>
+      <c r="R147" s="182"/>
+      <c r="S147" s="182"/>
+      <c r="T147" s="182"/>
+      <c r="U147" s="182"/>
+      <c r="V147" s="182"/>
+    </row>
+    <row r="148" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C148" s="192"/>
+      <c r="D148" s="190"/>
+      <c r="E148" s="191"/>
+      <c r="F148" s="191"/>
+      <c r="G148" s="191"/>
+      <c r="H148" s="191"/>
+      <c r="I148" s="191"/>
+      <c r="J148" s="191"/>
+      <c r="K148" s="191"/>
+      <c r="L148" s="191"/>
+      <c r="M148" s="191"/>
+      <c r="N148" s="191"/>
+      <c r="O148" s="191"/>
+      <c r="P148" s="191"/>
+      <c r="Q148" s="191"/>
+      <c r="R148" s="191"/>
+      <c r="S148" s="191"/>
+      <c r="T148" s="191"/>
+      <c r="U148" s="191"/>
+      <c r="V148" s="191"/>
+    </row>
+    <row r="149" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="C149" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="187"/>
+      <c r="K149" s="201"/>
+    </row>
+    <row r="150" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C150" s="188"/>
+      <c r="D150" s="189"/>
+      <c r="K150" s="202"/>
+    </row>
+    <row r="151" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K151" s="202"/>
+    </row>
+    <row r="152" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K152" s="202"/>
+    </row>
+    <row r="153" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K153" s="202"/>
+    </row>
+    <row r="154" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K154" s="202"/>
+    </row>
+    <row r="155" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K155" s="202"/>
+    </row>
+    <row r="156" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K156" s="202"/>
+    </row>
+    <row r="157" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K157" s="202"/>
+    </row>
+    <row r="158" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K158" s="202"/>
+    </row>
+    <row r="159" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K159" s="202"/>
+    </row>
+    <row r="160" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="K160" s="202"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K161" s="202"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="L48:T48"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="L44:T44"/>
-    <mergeCell ref="L46:T46"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:R7"/>
+  <mergeCells count="75">
+    <mergeCell ref="R132:S133"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="C132:D133"/>
+    <mergeCell ref="C149:D150"/>
+    <mergeCell ref="L134:Q134"/>
+    <mergeCell ref="L136:Q136"/>
+    <mergeCell ref="P67:V67"/>
+    <mergeCell ref="P69:U69"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P64:W65"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="C2:D2"/>
@@ -11596,11 +12304,54 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="S11:V11"/>
-    <mergeCell ref="P67:V67"/>
-    <mergeCell ref="P69:U69"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P64:W65"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="L48:T48"/>
+    <mergeCell ref="L44:T44"/>
+    <mergeCell ref="L46:T46"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D40:F40"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11623,94 +12374,94 @@
     <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="124"/>
+      <c r="I2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="O2" s="91" t="s">
+      <c r="M2" s="128"/>
+      <c r="O2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="131">
         <f ca="1">TODAY()</f>
         <v>44215</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="81">
+      <c r="D3" s="95"/>
+      <c r="F3" s="132">
         <v>44225</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="I3" s="81">
+      <c r="G3" s="133"/>
+      <c r="I3" s="132">
         <v>44246</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="L3" s="81">
+      <c r="J3" s="133"/>
+      <c r="L3" s="132">
         <v>44260</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="O3" s="81">
+      <c r="M3" s="133"/>
+      <c r="O3" s="132">
         <v>44274</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="7" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="119" t="s">
+      <c r="J8" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="114" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="143"/>
-      <c r="O8" s="116" t="s">
+      <c r="N8" s="136"/>
+      <c r="O8" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="114" t="s">
+      <c r="P8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="108" t="s">
+      <c r="Q8" s="135"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="147"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="138"/>
     </row>
     <row r="9" spans="2:22" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I9" s="137"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="147"/>
       <c r="M9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="144"/>
+      <c r="O9" s="148"/>
       <c r="P9" s="23" t="s">
         <v>21</v>
       </c>
@@ -11720,10 +12471,10 @@
       <c r="R9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="148"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="150"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="141"/>
     </row>
     <row r="10" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I10" s="18"/>
@@ -11745,9 +12496,9 @@
       <c r="I11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="20">
@@ -11762,18 +12513,18 @@
       <c r="R11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="103"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="105"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="101"/>
     </row>
     <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="20">
@@ -11788,18 +12539,18 @@
       <c r="R12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="97"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="85"/>
     </row>
     <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12"/>
       <c r="O13" s="20">
@@ -11814,18 +12565,18 @@
       <c r="R13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="97"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="85"/>
     </row>
     <row r="14" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="20">
@@ -11840,18 +12591,18 @@
       <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
     </row>
     <row r="15" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="20">
@@ -11866,18 +12617,18 @@
       <c r="R15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="20">
@@ -11892,18 +12643,18 @@
       <c r="R16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
     </row>
     <row r="17" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="20">
@@ -11918,18 +12669,18 @@
       <c r="R17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="97"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="85"/>
     </row>
     <row r="18" spans="9:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -11951,9 +12702,9 @@
       <c r="I19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="28"/>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -11975,9 +12726,9 @@
       <c r="I20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="28"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -11999,9 +12750,9 @@
       <c r="I21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="28"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
@@ -12103,6 +12854,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S8:V9"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="S14:V14"/>
@@ -12115,28 +12888,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:L9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S8:V9"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="S12:V12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12157,4 +12908,19 @@
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>